--- a/reports/resnet18_23_no_MMTM/prediction/9/probability_val_9.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/9/probability_val_9.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9517256021499634</v>
+        <v>0.9100899696350098</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04827442765235901</v>
+        <v>0.08991000056266785</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8556877374649048</v>
+        <v>0.7564255595207214</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1443122178316116</v>
+        <v>0.2435744106769562</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.235495999455452</v>
+        <v>0.1624191254377365</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7645039558410645</v>
+        <v>0.8375809192657471</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7887812256813049</v>
+        <v>0.5966268181800842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2112187892198563</v>
+        <v>0.4033731520175934</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.266526460647583</v>
+        <v>0.2768268585205078</v>
       </c>
       <c r="C6" t="n">
-        <v>0.733473539352417</v>
+        <v>0.7231731414794922</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8982786536216736</v>
+        <v>0.656211256980896</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1017213463783264</v>
+        <v>0.3437887728214264</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8975485563278198</v>
+        <v>0.6517462134361267</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1024514734745026</v>
+        <v>0.3482537567615509</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4297683238983154</v>
+        <v>0.3037317395210266</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5702316761016846</v>
+        <v>0.6962682604789734</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6465805172920227</v>
+        <v>0.3376204967498779</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3534194827079773</v>
+        <v>0.6623795032501221</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1567655503749847</v>
+        <v>0.1914615780115128</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8432344198226929</v>
+        <v>0.8085384368896484</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2414842844009399</v>
+        <v>0.2338716089725494</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7585157155990601</v>
+        <v>0.7661283612251282</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4450178146362305</v>
+        <v>0.5547963380813599</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5549821853637695</v>
+        <v>0.4452036619186401</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1379894018173218</v>
+        <v>0.21666419506073</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8620105981826782</v>
+        <v>0.78333580493927</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1242524385452271</v>
+        <v>0.1493707001209259</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8757475614547729</v>
+        <v>0.8506293296813965</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1582001000642776</v>
+        <v>0.2207262217998505</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8417999744415283</v>
+        <v>0.7792737483978271</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7189140319824219</v>
+        <v>0.491502583026886</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2810859084129333</v>
+        <v>0.508497416973114</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6415603160858154</v>
+        <v>0.5286538600921631</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3584396839141846</v>
+        <v>0.4713461399078369</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5471826791763306</v>
+        <v>0.4534324407577515</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4528173804283142</v>
+        <v>0.5465675592422485</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4632150828838348</v>
+        <v>0.2852782905101776</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5367849469184875</v>
+        <v>0.7147217392921448</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.104242667555809</v>
+        <v>0.1296686232089996</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8957573175430298</v>
+        <v>0.870331346988678</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5185583233833313</v>
+        <v>0.2594157755374908</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4814416766166687</v>
+        <v>0.7405841946601868</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1220211461186409</v>
+        <v>0.1099144667387009</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8779789209365845</v>
+        <v>0.8900855183601379</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2255425304174423</v>
+        <v>0.2937561869621277</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7744574546813965</v>
+        <v>0.7062438130378723</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
